--- a/data/trans_bre/P12A1_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-22,1</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-82,89%</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-45,94%</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>-80,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>-67,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-53,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-36,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>111,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-51,14; -1,69</t>
+          <t>-6,2; -0,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 14,84</t>
+          <t>-6,11; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 26,11</t>
+          <t>-5,93; 1,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 49,38</t>
+          <t>-7,42; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-2,17; 9,97</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 8,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 294,59</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-48,54; 1096,96</t>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-91,59; 202,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-64,66; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-64,95; 509,41</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,93</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>130,58%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>-48,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>126,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-42,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 41,62</t>
+          <t>-3,47; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 41,41</t>
+          <t>-4,6; 1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 53,08</t>
+          <t>-2,22; 4,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 28,37</t>
+          <t>-1,28; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,49; 269,65</t>
+          <t>-3,71; 4,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,67; 477,09</t>
+          <t>-7,52; 1,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 681,02</t>
+          <t>-76,58; 337,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 188,22</t>
+          <t>-100,0; 245,42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-58,87; 348,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-74,58; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-69,13; 557,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-87,19; 106,46</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,09</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>122,07%</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>167,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>109,43%</t>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-48,28%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>129,61%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-36,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 36,18</t>
+          <t>-0,21; 4,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 20,16</t>
+          <t>-1,88; 2,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 22,94</t>
+          <t>-1,02; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 28,53</t>
+          <t>-3,64; 0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 1056,83</t>
+          <t>-0,68; 4,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 397,78</t>
+          <t>-4,74; 1,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,91; —</t>
+          <t>-45,18; 1143,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,84; —</t>
+          <t>-73,71; 441,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-69,52; 1053,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-90,27; 108,22</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-62,34; 963,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-84,72; 157,27</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>88,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-24,43%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 27,65</t>
+          <t>-1,39; 6,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 17,76</t>
+          <t>-2,88; 4,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 33,4</t>
+          <t>-0,23; 6,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 18,82</t>
+          <t>-0,8; 5,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 128,83</t>
+          <t>-3,54; 2,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 64,91</t>
+          <t>-5,03; 2,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 218,3</t>
+          <t>-24,51; 252,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 285,95</t>
+          <t>-43,64; 125,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 288,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-29,55; 362,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-74,06; 169,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-71,06; 79,86</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33,39</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,51</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,58</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>58,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-15,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 54,88</t>
+          <t>1,47; 13,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 42,93</t>
+          <t>-0,11; 10,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 36,14</t>
+          <t>-4,17; 7,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 37,17</t>
+          <t>-5,78; 9,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,89; 196,1</t>
+          <t>-5,58; 9,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 117,57</t>
+          <t>-10,92; 4,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 84,59</t>
+          <t>10,42; 274,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 120,55</t>
+          <t>-1,03; 155,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-27,65; 88,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-33,08; 86,34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; 82,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-47,53; 36,57</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57,48%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-19,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-22,28%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 23,22</t>
+          <t>-5,35; 14,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 16,9</t>
+          <t>-0,41; 16,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 2,23</t>
+          <t>-6,82; 10,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 7,27</t>
+          <t>-1,21; 20,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 34,91</t>
+          <t>-15,52; 5,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 22,52</t>
+          <t>-18,02; 3,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 2,08</t>
+          <t>-20,56; 103,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 8,48</t>
+          <t>-2,76; 122,54</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-26,82; 60,11</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 179,62</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-50,46; 28,08</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-47,6; 14,78</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>50,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-8,23%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 22,74</t>
+          <t>0,71; 5,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 26,62</t>
+          <t>0,39; 4,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 23,68</t>
+          <t>-0,19; 4,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 21,0</t>
+          <t>0,42; 5,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 59,08</t>
+          <t>-1,54; 4,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,4; 74,17</t>
+          <t>-3,67; 2,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 66,03</t>
+          <t>8,29; 104,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 63,04</t>
+          <t>4,8; 86,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 73,55</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 98,83</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 57,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; 23,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
